--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl5-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl5-Cxcr3.xlsx
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.141514</v>
+      </c>
+      <c r="H2">
+        <v>3.424542</v>
+      </c>
+      <c r="I2">
+        <v>0.1286876091642341</v>
+      </c>
+      <c r="J2">
+        <v>0.1286876091642341</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.021814</v>
-      </c>
-      <c r="H2">
-        <v>0.065442</v>
-      </c>
-      <c r="I2">
-        <v>0.0003864745254839946</v>
-      </c>
-      <c r="J2">
-        <v>0.0003864745254839945</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N2">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O2">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P2">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q2">
-        <v>0.0175799026</v>
+        <v>0.07439817495000001</v>
       </c>
       <c r="R2">
-        <v>0.1582191234</v>
+        <v>0.6695835745500001</v>
       </c>
       <c r="S2">
-        <v>3.652747078501009E-05</v>
+        <v>0.001210180394639082</v>
       </c>
       <c r="T2">
-        <v>3.652747078501009E-05</v>
+        <v>0.001210180394639082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H3">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I3">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J3">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N3">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q3">
-        <v>0.1165973424373333</v>
+        <v>7.669278170700666</v>
       </c>
       <c r="R3">
-        <v>1.049376081936</v>
+        <v>69.02350353630599</v>
       </c>
       <c r="S3">
-        <v>0.0002422656209420359</v>
+        <v>0.124750507515177</v>
       </c>
       <c r="T3">
-        <v>0.0002422656209420359</v>
+        <v>0.124750507515177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.141514</v>
+      </c>
+      <c r="H4">
+        <v>3.424542</v>
+      </c>
+      <c r="I4">
+        <v>0.1286876091642341</v>
+      </c>
+      <c r="J4">
+        <v>0.1286876091642341</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.021814</v>
-      </c>
-      <c r="H4">
-        <v>0.065442</v>
-      </c>
-      <c r="I4">
-        <v>0.0003864745254839946</v>
-      </c>
-      <c r="J4">
-        <v>0.0003864745254839945</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N4">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O4">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P4">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q4">
-        <v>0.051824806826</v>
+        <v>0.16764274604</v>
       </c>
       <c r="R4">
-        <v>0.466423261434</v>
+        <v>1.50878471436</v>
       </c>
       <c r="S4">
-        <v>0.0001076814337569485</v>
+        <v>0.002726921254418038</v>
       </c>
       <c r="T4">
-        <v>0.0001076814337569485</v>
+        <v>0.002726921254418037</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I5">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J5">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N5">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O5">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P5">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q5">
-        <v>1.087046005366667</v>
+        <v>0.087911928775</v>
       </c>
       <c r="R5">
-        <v>9.783414048299999</v>
+        <v>0.7912073589749999</v>
       </c>
       <c r="S5">
-        <v>0.002258661046449304</v>
+        <v>0.00142999868921398</v>
       </c>
       <c r="T5">
-        <v>0.002258661046449304</v>
+        <v>0.00142999868921398</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I6">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J6">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N6">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O6">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P6">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q6">
-        <v>7.209748439270222</v>
+        <v>9.062333004155221</v>
       </c>
       <c r="R6">
-        <v>64.887735953432</v>
+        <v>81.56099703739699</v>
       </c>
       <c r="S6">
-        <v>0.01498039445808506</v>
+        <v>0.1474103059475566</v>
       </c>
       <c r="T6">
-        <v>0.01498039445808506</v>
+        <v>0.1474103059475566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I7">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J7">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N7">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O7">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P7">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q7">
-        <v>3.204565492820333</v>
+        <v>0.1980935306466667</v>
       </c>
       <c r="R7">
-        <v>28.841089435383</v>
+        <v>1.78284177582</v>
       </c>
       <c r="S7">
-        <v>0.006658436914072903</v>
+        <v>0.003222241772120677</v>
       </c>
       <c r="T7">
-        <v>0.006658436914072904</v>
+        <v>0.003222241772120676</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H8">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I8">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J8">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N8">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O8">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P8">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q8">
-        <v>14.8790310993</v>
+        <v>0.1587860263</v>
       </c>
       <c r="R8">
-        <v>133.9112798937</v>
+        <v>1.4290742367</v>
       </c>
       <c r="S8">
-        <v>0.03091560779119092</v>
+        <v>0.002582855508217082</v>
       </c>
       <c r="T8">
-        <v>0.03091560779119092</v>
+        <v>0.002582855508217082</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H9">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I9">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J9">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N9">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O9">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P9">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q9">
-        <v>98.68402139047201</v>
+        <v>16.36833438633822</v>
       </c>
       <c r="R9">
-        <v>888.1561925142481</v>
+        <v>147.315009477044</v>
       </c>
       <c r="S9">
-        <v>0.2050453742723113</v>
+        <v>0.2662516571213719</v>
       </c>
       <c r="T9">
-        <v>0.2050453742723113</v>
+        <v>0.2662516571213719</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H10">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I10">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J10">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N10">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O10">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P10">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q10">
-        <v>43.862752258893</v>
+        <v>0.3577954096266667</v>
       </c>
       <c r="R10">
-        <v>394.7647703300371</v>
+        <v>3.22015868664</v>
       </c>
       <c r="S10">
-        <v>0.09113789980195054</v>
+        <v>0.005819994782305497</v>
       </c>
       <c r="T10">
-        <v>0.09113789980195056</v>
+        <v>0.005819994782305496</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H11">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I11">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J11">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N11">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O11">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P11">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q11">
-        <v>0.3991031706666667</v>
+        <v>0.0267880547</v>
       </c>
       <c r="R11">
-        <v>3.591928536</v>
+        <v>0.2410924923</v>
       </c>
       <c r="S11">
-        <v>0.0008292554138912899</v>
+        <v>0.0004357415841214706</v>
       </c>
       <c r="T11">
-        <v>0.00082925541389129</v>
+        <v>0.0004357415841214706</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H12">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I12">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J12">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N12">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O12">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P12">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q12">
-        <v>2.647020869048889</v>
+        <v>2.761425845248444</v>
       </c>
       <c r="R12">
-        <v>23.82318782144</v>
+        <v>24.852832607236</v>
       </c>
       <c r="S12">
-        <v>0.005499972307098865</v>
+        <v>0.0449180832918983</v>
       </c>
       <c r="T12">
-        <v>0.005499972307098865</v>
+        <v>0.0449180832918983</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H13">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I13">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J13">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N13">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O13">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P13">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q13">
-        <v>1.176539210373333</v>
+        <v>0.06036200557333334</v>
       </c>
       <c r="R13">
-        <v>10.58885289336</v>
+        <v>0.5432580501600001</v>
       </c>
       <c r="S13">
-        <v>0.002444609769017194</v>
+        <v>0.0009818643505037081</v>
       </c>
       <c r="T13">
-        <v>0.002444609769017195</v>
+        <v>0.0009818643505037081</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H14">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I14">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J14">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N14">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O14">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P14">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q14">
-        <v>0.1438749093</v>
+        <v>0.143814916025</v>
       </c>
       <c r="R14">
-        <v>1.2948741837</v>
+        <v>1.294334244225</v>
       </c>
       <c r="S14">
-        <v>0.0002989428704884705</v>
+        <v>0.002339331468105064</v>
       </c>
       <c r="T14">
-        <v>0.0002989428704884705</v>
+        <v>0.002339331468105064</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H15">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I15">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J15">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N15">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O15">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P15">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q15">
-        <v>0.9542391928720001</v>
+        <v>14.82504909338078</v>
       </c>
       <c r="R15">
-        <v>8.588152735848</v>
+        <v>133.425441840427</v>
       </c>
       <c r="S15">
-        <v>0.001982715435496417</v>
+        <v>0.2411481702935417</v>
       </c>
       <c r="T15">
-        <v>0.001982715435496417</v>
+        <v>0.2411481702935417</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H16">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I16">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J16">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N16">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O16">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P16">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q16">
-        <v>0.424137126993</v>
+        <v>0.3240607375133334</v>
       </c>
       <c r="R16">
-        <v>3.817234142937</v>
+        <v>2.91654663762</v>
       </c>
       <c r="S16">
-        <v>0.0008812708959533668</v>
+        <v>0.005271257681717066</v>
       </c>
       <c r="T16">
-        <v>0.0008812708959533669</v>
+        <v>0.005271257681717065</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H17">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I17">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J17">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N17">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O17">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P17">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q17">
-        <v>28.96123394626666</v>
+        <v>0.08643095725</v>
       </c>
       <c r="R17">
-        <v>260.6511055164</v>
+        <v>0.77787861525</v>
       </c>
       <c r="S17">
-        <v>0.06017556814393831</v>
+        <v>0.001405908814619902</v>
       </c>
       <c r="T17">
-        <v>0.0601755681439383</v>
+        <v>0.001405908814619902</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H18">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I18">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J18">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N18">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O18">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P18">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q18">
-        <v>192.0831411114062</v>
+        <v>8.909668202958889</v>
       </c>
       <c r="R18">
-        <v>1728.748270002656</v>
+        <v>80.18701382662999</v>
       </c>
       <c r="S18">
-        <v>0.3991097951384476</v>
+        <v>0.1449270199061525</v>
       </c>
       <c r="T18">
-        <v>0.3991097951384476</v>
+        <v>0.1449270199061525</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H19">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I19">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J19">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N19">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O19">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P19">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q19">
-        <v>85.37648864492932</v>
+        <v>0.1947564308666667</v>
       </c>
       <c r="R19">
-        <v>768.388397804364</v>
+        <v>1.7528078778</v>
       </c>
       <c r="S19">
-        <v>0.1773950212161245</v>
+        <v>0.003167959624320351</v>
       </c>
       <c r="T19">
-        <v>0.1773950212161245</v>
+        <v>0.003167959624320351</v>
       </c>
     </row>
   </sheetData>
